--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MISSOURI_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MISSOURI_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D888"/>
+  <dimension ref="A1:D882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C7">
@@ -472,7 +472,7 @@
         <v>39</v>
       </c>
       <c r="D8">
-        <v>0.009048723897911833</v>
+        <v>0.009048723897911832</v>
       </c>
     </row>
     <row r="9">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C11">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C76">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C89">
@@ -1704,7 +1704,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C101">
@@ -1865,7 +1865,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1922,7 +1922,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C117">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C143">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C145">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C152">
@@ -2486,12 +2486,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C160">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C163">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C166">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C171">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C176">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C180">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C186">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C189">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C196">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C200">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C206">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C216">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C222">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C225">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C235">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C237">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C239">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C241">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C243">
@@ -3621,13 +3621,13 @@
         <v>39</v>
       </c>
       <c r="D246">
-        <v>0.009048723897911833</v>
+        <v>0.009048723897911832</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C247">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C252">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C255">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C258">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C263">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C267">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C272">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C275">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C277">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C279">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C291">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C295">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C307">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C311">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C316">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C318">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C320">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C323">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C326">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C328">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C335">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C337">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C340">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C342">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C344">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C352">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C356">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C359">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C363">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C366">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C369">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C372">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C373">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C375">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C380">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C381">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C384">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C386">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C389">
@@ -6325,7 +6325,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C453">
@@ -6642,7 +6642,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C477">
@@ -6720,7 +6720,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C483">
@@ -6764,7 +6764,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C486">
@@ -6790,7 +6790,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C488">
@@ -6925,7 +6925,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C498">
@@ -7016,7 +7016,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C505">
@@ -7049,7 +7049,7 @@
         <v>39</v>
       </c>
       <c r="D507">
-        <v>0.009048723897911833</v>
+        <v>0.009048723897911832</v>
       </c>
     </row>
     <row r="508">
@@ -7068,7 +7068,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C509">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C512">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C516">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C522">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C529">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C530">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C538">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C549">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C559">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C580">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C587">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C593">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C597">
@@ -8300,7 +8300,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C603">
@@ -8430,7 +8430,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C613">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C628">
@@ -8651,7 +8651,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C630">
@@ -8742,7 +8742,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C637">
@@ -8781,7 +8781,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C640">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C649">
@@ -8929,7 +8929,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C651">
@@ -8981,7 +8981,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C655">
@@ -8994,7 +8994,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C656">
@@ -9020,7 +9020,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C658">
@@ -9046,7 +9046,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C660">
@@ -9160,7 +9160,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C668">
@@ -9251,7 +9251,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C675">
@@ -9329,7 +9329,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C681">
@@ -9342,7 +9342,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C682">
@@ -9407,7 +9407,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C687">
@@ -9420,7 +9420,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C688">
@@ -9433,7 +9433,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C689">
@@ -9851,7 +9851,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C720">
@@ -10129,7 +10129,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C741">
@@ -10238,7 +10238,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C749">
@@ -10251,7 +10251,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C750">
@@ -10316,7 +10316,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C755">
@@ -10464,7 +10464,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C766">
@@ -10542,7 +10542,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C772">
@@ -10633,7 +10633,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C779">
@@ -10750,7 +10750,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C788">
@@ -10763,7 +10763,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C789">
@@ -10841,7 +10841,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C795">
@@ -10854,7 +10854,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C796">
@@ -10893,7 +10893,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C799">
@@ -11010,7 +11010,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C808">
@@ -11114,7 +11114,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C816">
@@ -11127,7 +11127,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C817">
@@ -11283,7 +11283,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C829">
@@ -11322,7 +11322,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C832">
@@ -11501,7 +11501,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C845">
@@ -11527,7 +11527,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C847">
@@ -11696,7 +11696,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C860">
@@ -11748,7 +11748,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C864">
@@ -11761,7 +11761,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C865">
@@ -11878,7 +11878,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C874">
@@ -11891,7 +11891,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C875">
@@ -11917,7 +11917,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C877">
@@ -11990,41 +11990,6 @@
       </c>
       <c r="D882">
         <v>1</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
